--- a/Project4/Notes/Aims and Info Needed.xlsx
+++ b/Project4/Notes/Aims and Info Needed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Aim/Hypothesis</t>
   </si>
@@ -125,7 +125,13 @@
     <t>Doesn't really have info on cortical thickness detectable diff, so this will all be exploratory and we won't power on it</t>
   </si>
   <si>
-    <t>From Figure 2: slope magnitude is 0.2195, 95% of X is b/t -50 and 100 so sd x= 37.5, alpha = ?, power = 0.80, 95% of Y is b/t -5 and 5 so sd y = 2.5, correlation of interest is 0.2</t>
+    <t>#IGNOREEEEEE (From Figure 2: slope magnitude is 0.2195, 95% of X is b/t -50 and 100 so sd x= 37.5, alpha = ?, power = 0.80, 95% of Y is b/t -5 and 5 so sd y = 2.5, correlation of interest is 0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now we're doing correlation = 0.2, power = 0.8, alpha = 0.01, two tailed for correlation bivariate normal, so use sample size of 319 (319 * 0.9 = 287), </t>
+  </si>
+  <si>
+    <t>Based on 287 people left, would have 205 in aMCI and 82 in healthy based on recruiting proportions, power = 0.8, alpha = 0.01, two tails, can detect correlation difference b/t groups of 0.453</t>
   </si>
 </sst>
 </file>
@@ -162,12 +168,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -211,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,6 +260,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,23 +546,23 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -573,7 +588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -595,8 +610,11 @@
       <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -616,11 +634,11 @@
         <v>12</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -642,9 +660,11 @@
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -666,7 +686,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -676,7 +696,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
         <v>23</v>
@@ -688,7 +708,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="13" t="s">
         <v>24</v>
@@ -700,7 +720,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="13" t="s">
         <v>32</v>
@@ -712,7 +732,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="13" t="s">
         <v>25</v>
@@ -724,7 +744,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="13" t="s">
         <v>26</v>
@@ -736,7 +756,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="13" t="s">
         <v>27</v>
@@ -748,7 +768,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="13" t="s">
         <v>28</v>
@@ -760,7 +780,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="13" t="s">
         <v>29</v>
@@ -772,7 +792,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="13" t="s">
         <v>30</v>
@@ -784,7 +804,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
